--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_18.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>923630.0522963966</v>
+        <v>907838.4246152468</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584668</v>
+        <v>460545.8926584666</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>82.69355372315668</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>203.2913221445022</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -896,65 +896,65 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>62.4162677022923</v>
       </c>
     </row>
     <row r="6">
@@ -972,10 +972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>92.74773278771258</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>121.9333552767668</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.221003825311288</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>34.66067414728066</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1303,19 +1303,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>117.889549819912</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>18.76263467700208</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>53.92880121529013</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1537,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>36.48436605884934</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
         <v>139.0783256288915</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>167.9289512464143</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>8.784519550421932</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>45.20428959175573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,16 +1695,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1737,10 +1737,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
-        <v>60.36693997173244</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>10.5421541965934</v>
       </c>
       <c r="H16" t="n">
         <v>157.3867970498209</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.48436605884934</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>62.79018912246564</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
@@ -1889,13 +1889,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
         <v>251.2485578939812</v>
@@ -1904,13 +1904,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>318.2801892474972</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1929,7 +1929,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -1941,7 +1941,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>59.83930139749141</v>
       </c>
       <c r="S18" t="n">
-        <v>89.47947660938759</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T18" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>46.26107291915906</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.21297465918771</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>149.8134234192865</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>218.2247322505888</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>38.36879653192305</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2135,13 +2135,13 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,22 +2163,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>35.39908632027097</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S21" t="n">
-        <v>159.6212195484502</v>
+        <v>106.2387529750474</v>
       </c>
       <c r="T21" t="n">
         <v>197.5472709665096</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.4950217895008</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2293,13 +2293,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>228.4010902861368</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,22 +2318,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>141.389856126569</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>135.1052732557919</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>75.24179489212312</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -2415,7 +2415,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>120.9673892710046</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2460,7 +2460,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2485,10 +2485,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>123.5544594002518</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>77.41754251185407</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>124.8319684064977</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,19 +2600,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>45.83739796067772</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2634,25 +2634,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>24.1131619115073</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>76.32943916025816</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2722,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.01043530101143</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>43.35606979968788</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2798,19 +2798,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>158.7336217513419</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>94.25142108488993</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,28 +2837,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2871,10 +2871,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>15.4024934946316</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2889,7 +2889,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I30" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2931,7 +2931,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.8340432318743</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2953,16 +2953,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.20734219557368</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,19 +2992,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>115.1165353722836</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3035,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>380.4356331745046</v>
       </c>
       <c r="F32" t="n">
-        <v>372.6422047064663</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3089,10 +3089,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3123,10 +3123,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>67.30996878196338</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S33" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464796</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.9113266406422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,16 +3229,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R34" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>176.8310480250585</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>46.87604357297182</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
         <v>251.2485578939812</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>353.3368440455564</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3351,16 +3351,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>60.11425531312955</v>
+        <v>104.262613881998</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>111.060750249129</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>75.58673470997151</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,16 +3548,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>32.89009974202003</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>170.4109780037618</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3594,7 +3594,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749141</v>
+        <v>59.35310741134941</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3645,7 +3645,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>40.2412654728257</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>116.1611518470178</v>
+        <v>88.90986270619138</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3746,13 +3746,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>196.5259031369008</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>414.089049841944</v>
+        <v>206.5403761926882</v>
       </c>
       <c r="H41" t="n">
         <v>327.0451232326991</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>69.06647955367482</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
@@ -3873,16 +3873,16 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
-        <v>95.62025615464796</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>92.4784086463653</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>147.3472002825671</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>325.9301750531573</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>179.4927365980164</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4065,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T45" t="n">
-        <v>53.92880121529013</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U45" t="n">
         <v>225.8986597023843</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4183,19 +4183,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>173.4891518971509</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>268.9755074231831</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>730.8505943024719</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C2" t="n">
-        <v>730.8505943024719</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D2" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E2" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>730.8505943024719</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>730.8505943024719</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
       <c r="C3" t="n">
         <v>19.28114311021272</v>
@@ -4413,46 +4413,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>660.701031422288</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>432.4774131586771</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>227.1326433157456</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>227.1326433157456</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>310.5702840197694</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>102.8099852548154</v>
       </c>
     </row>
     <row r="4">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4589,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="W5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="X5" t="n">
-        <v>964.0571555106362</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>426.903709034957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>252.45067975383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>252.45067975383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>252.45067975383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4653,43 +4653,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>638.7055555393347</v>
       </c>
       <c r="W6" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X6" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y6" t="n">
-        <v>426.903709034957</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="7">
@@ -4720,7 +4720,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4832,22 +4832,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.1910343172051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>372.7380050360781</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>369.484465818592</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>369.484465818592</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4887,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>929.0463735436861</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>726.8597789024521</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W9" t="n">
-        <v>547.1910343172051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>547.1910343172051</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.1910343172051</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>809.9011038860351</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="C11" t="n">
-        <v>809.9011038860351</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="D11" t="n">
-        <v>451.6354052792846</v>
+        <v>165.9753497950908</v>
       </c>
       <c r="E11" t="n">
-        <v>65.84715268104037</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F11" t="n">
-        <v>65.84715268104037</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G11" t="n">
         <v>46.89499644164432</v>
@@ -5072,19 +5072,19 @@
         <v>1867.1984047608</v>
       </c>
       <c r="U11" t="n">
-        <v>1867.1984047608</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V11" t="n">
-        <v>1536.135517417229</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W11" t="n">
-        <v>1183.366862147115</v>
+        <v>929.5804400319823</v>
       </c>
       <c r="X11" t="n">
-        <v>809.9011038860351</v>
+        <v>556.1146817709025</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.9011038860351</v>
+        <v>165.9753497950908</v>
       </c>
     </row>
     <row r="12">
@@ -5136,19 +5136,19 @@
         <v>2102.280527752458</v>
       </c>
       <c r="P12" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S12" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="T12" t="n">
-        <v>2284.306083296871</v>
+        <v>2290.276285501115</v>
       </c>
       <c r="U12" t="n">
         <v>2062.095821155272</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="E13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="F13" t="n">
-        <v>242.8011754972942</v>
+        <v>570.9156784273715</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8011754972942</v>
+        <v>401.7777381738809</v>
       </c>
       <c r="H13" t="n">
         <v>242.8011754972942</v>
@@ -5218,31 +5218,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q13" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y13" t="n">
-        <v>242.8011754972942</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="14">
@@ -5303,19 +5303,19 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S14" t="n">
-        <v>2161.554709220192</v>
+        <v>2335.876570011083</v>
       </c>
       <c r="T14" t="n">
-        <v>2161.554709220192</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="U14" t="n">
-        <v>2161.554709220192</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="V14" t="n">
-        <v>2161.554709220192</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="W14" t="n">
-        <v>2161.554709220192</v>
+        <v>2115.893810642661</v>
       </c>
       <c r="X14" t="n">
         <v>2115.893810642661</v>
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
@@ -5367,7 +5367,7 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O15" t="n">
         <v>1887.88481026779</v>
@@ -5385,22 +5385,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T15" t="n">
-        <v>2123.072528197426</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="C16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="D16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="E16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="G16" t="n">
         <v>401.7777381738809</v>
@@ -5455,31 +5455,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q16" t="n">
-        <v>570.9156784273715</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="S16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="T16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="U16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="V16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="W16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="X16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
       <c r="Y16" t="n">
-        <v>570.9156784273715</v>
+        <v>412.4263787765005</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1016.992525377587</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="C17" t="n">
-        <v>1016.992525377587</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="D17" t="n">
-        <v>1016.992525377587</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="E17" t="n">
-        <v>1016.992525377587</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="F17" t="n">
-        <v>606.0066205879796</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G17" t="n">
         <v>542.5821871309436</v>
@@ -5537,28 +5537,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U17" t="n">
-        <v>2090.963399967084</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V17" t="n">
-        <v>1759.900512623513</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>1407.131857353399</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="X17" t="n">
-        <v>1407.131857353399</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="Y17" t="n">
-        <v>1016.992525377587</v>
+        <v>960.8539546480588</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.1634746939509</v>
+        <v>829.641765199318</v>
       </c>
       <c r="C18" t="n">
-        <v>746.7104454128239</v>
+        <v>655.188735918191</v>
       </c>
       <c r="D18" t="n">
-        <v>597.7760357515726</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="E18" t="n">
-        <v>438.5385807461172</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F18" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K18" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L18" t="n">
         <v>491.2196383161158</v>
@@ -5619,25 +5619,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S18" t="n">
-        <v>2193.922773590419</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T18" t="n">
-        <v>1994.38007564445</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U18" t="n">
-        <v>1994.38007564445</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1759.227967412707</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W18" t="n">
-        <v>1504.990610684506</v>
+        <v>1413.468901189873</v>
       </c>
       <c r="X18" t="n">
-        <v>1297.139110478973</v>
+        <v>1205.61740098434</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.378811714019</v>
+        <v>997.857102219386</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>198.221686764156</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5698,25 +5698,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>391.0727469424309</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U19" t="n">
-        <v>391.0727469424309</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V19" t="n">
-        <v>391.0727469424309</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W19" t="n">
-        <v>101.6555769054703</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X19" t="n">
-        <v>101.6555769054703</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y19" t="n">
-        <v>101.6555769054703</v>
+        <v>379.8701515943957</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1465.544208164121</v>
+        <v>1385.398567379559</v>
       </c>
       <c r="C20" t="n">
-        <v>1096.581691223709</v>
+        <v>1385.398567379559</v>
       </c>
       <c r="D20" t="n">
-        <v>1096.581691223709</v>
+        <v>1385.398567379559</v>
       </c>
       <c r="E20" t="n">
-        <v>876.152668748367</v>
+        <v>999.6103147813144</v>
       </c>
       <c r="F20" t="n">
-        <v>465.1667639587595</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G20" t="n">
-        <v>46.89499644164434</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H20" t="n">
-        <v>46.89499644164434</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I20" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
         <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.902094927568</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244555</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M20" t="n">
         <v>1190.549107376119</v>
@@ -5765,37 +5765,37 @@
         <v>1610.799342072557</v>
       </c>
       <c r="O20" t="n">
-        <v>1962.442083972114</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P20" t="n">
         <v>2224.886645733487</v>
       </c>
       <c r="Q20" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T20" t="n">
-        <v>2050.393517622824</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="U20" t="n">
-        <v>1796.607095507692</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="V20" t="n">
-        <v>1465.544208164121</v>
+        <v>2124.767062713795</v>
       </c>
       <c r="W20" t="n">
-        <v>1465.544208164121</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="X20" t="n">
-        <v>1465.544208164121</v>
+        <v>1771.99840744368</v>
       </c>
       <c r="Y20" t="n">
-        <v>1465.544208164121</v>
+        <v>1771.99840744368</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>622.1327649551158</v>
+        <v>676.0544483625931</v>
       </c>
       <c r="C21" t="n">
-        <v>447.6797356739888</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D21" t="n">
-        <v>447.6797356739888</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E21" t="n">
-        <v>288.4422806685333</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F21" t="n">
-        <v>288.4422806685333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G21" t="n">
-        <v>150.3673948012254</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H21" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I21" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J21" t="n">
-        <v>46.89499644164434</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L21" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810004</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082217</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R21" t="n">
-        <v>2284.306083296872</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S21" t="n">
-        <v>2123.072528197427</v>
+        <v>2176.994211604904</v>
       </c>
       <c r="T21" t="n">
-        <v>1923.529830251457</v>
+        <v>1977.451513658935</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905615</v>
+        <v>1749.271049313092</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673872</v>
+        <v>1514.118941081349</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.959900945671</v>
+        <v>1259.881584353148</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401378</v>
+        <v>1052.030084147615</v>
       </c>
       <c r="Y21" t="n">
-        <v>790.3481019751839</v>
+        <v>844.2697853826612</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>1886.396469117349</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J22" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>1824.448464912936</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L22" t="n">
-        <v>1931.893372366004</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M22" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N22" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O22" t="n">
-        <v>2282.257553995578</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P22" t="n">
-        <v>2344.749822082217</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q22" t="n">
-        <v>2344.749822082217</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R22" t="n">
-        <v>2344.749822082217</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S22" t="n">
-        <v>2344.749822082217</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T22" t="n">
-        <v>2344.749822082217</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U22" t="n">
-        <v>2344.749822082217</v>
+        <v>277.6031684478431</v>
       </c>
       <c r="V22" t="n">
-        <v>2344.749822082217</v>
+        <v>277.6031684478431</v>
       </c>
       <c r="W22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>2055.332652045256</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>432.6832490398886</v>
+        <v>1713.715405868142</v>
       </c>
       <c r="C23" t="n">
-        <v>432.6832490398886</v>
+        <v>1344.752888927731</v>
       </c>
       <c r="D23" t="n">
-        <v>432.6832490398886</v>
+        <v>986.4871903209801</v>
       </c>
       <c r="E23" t="n">
-        <v>46.89499644164434</v>
+        <v>600.6989377227358</v>
       </c>
       <c r="F23" t="n">
-        <v>46.89499644164434</v>
+        <v>189.7130329331282</v>
       </c>
       <c r="G23" t="n">
-        <v>46.89499644164434</v>
+        <v>189.7130329331282</v>
       </c>
       <c r="H23" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275677</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244551</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376119</v>
@@ -6014,25 +6014,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S23" t="n">
-        <v>2133.906304005598</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T23" t="n">
-        <v>2133.906304005598</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U23" t="n">
-        <v>1880.119881890465</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V23" t="n">
-        <v>1549.056994546894</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="W23" t="n">
-        <v>1196.28833927678</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="X23" t="n">
-        <v>822.8225810157003</v>
+        <v>1713.715405868142</v>
       </c>
       <c r="Y23" t="n">
-        <v>432.6832490398886</v>
+        <v>1713.715405868142</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.1634746939511</v>
+        <v>890.4280039459932</v>
       </c>
       <c r="C24" t="n">
-        <v>746.7104454128241</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D24" t="n">
-        <v>597.7760357515729</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E24" t="n">
-        <v>438.5385807461173</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F24" t="n">
-        <v>292.0040227730022</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G24" t="n">
-        <v>153.9291369056943</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89499644164434</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I24" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J24" t="n">
-        <v>46.89499644164434</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592726</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q24" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082217</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082217</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T24" t="n">
-        <v>2222.560539990293</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U24" t="n">
-        <v>1994.38007564445</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V24" t="n">
-        <v>1759.227967412707</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W24" t="n">
-        <v>1504.990610684506</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X24" t="n">
-        <v>1297.139110478973</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.378811714019</v>
+        <v>1058.643340966061</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>171.697480684323</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J25" t="n">
-        <v>46.89499644164434</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K25" t="n">
-        <v>87.46721626702978</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L25" t="n">
         <v>194.9121237200978</v>
@@ -6172,25 +6172,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S25" t="n">
-        <v>607.7685734363102</v>
+        <v>529.5690355455486</v>
       </c>
       <c r="T25" t="n">
-        <v>607.7685734363102</v>
+        <v>529.5690355455486</v>
       </c>
       <c r="U25" t="n">
-        <v>318.5874281822333</v>
+        <v>529.5690355455486</v>
       </c>
       <c r="V25" t="n">
-        <v>318.5874281822333</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W25" t="n">
-        <v>318.5874281822333</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y25" t="n">
-        <v>318.5874281822333</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>377.243605767603</v>
+        <v>900.2161093691072</v>
       </c>
       <c r="C26" t="n">
-        <v>377.243605767603</v>
+        <v>531.2535924286956</v>
       </c>
       <c r="D26" t="n">
-        <v>377.243605767603</v>
+        <v>172.9878938219451</v>
       </c>
       <c r="E26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G26" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6230,7 +6230,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M26" t="n">
         <v>1190.549107376119</v>
@@ -6248,28 +6248,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2298.449420101734</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S26" t="n">
-        <v>2298.449420101734</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T26" t="n">
-        <v>2078.466660733312</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U26" t="n">
-        <v>1824.680238618179</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="V26" t="n">
-        <v>1493.617351274609</v>
+        <v>2016.589854876113</v>
       </c>
       <c r="W26" t="n">
-        <v>1140.848696004495</v>
+        <v>1663.821199605999</v>
       </c>
       <c r="X26" t="n">
-        <v>767.3829377434147</v>
+        <v>1290.355441344919</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.243605767603</v>
+        <v>900.2161093691072</v>
       </c>
     </row>
     <row r="27">
@@ -6282,22 +6282,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>597.7760357515726</v>
       </c>
       <c r="E27" t="n">
-        <v>298.7453260127371</v>
+        <v>438.5385807461172</v>
       </c>
       <c r="F27" t="n">
-        <v>221.6448824165167</v>
+        <v>292.0040227730022</v>
       </c>
       <c r="G27" t="n">
-        <v>221.6448824165167</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I27" t="n">
         <v>46.89499644164432</v>
@@ -6306,19 +6306,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K27" t="n">
-        <v>273.1268607498447</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L27" t="n">
-        <v>642.6780758583286</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M27" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N27" t="n">
-        <v>1637.630816213677</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O27" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P27" t="n">
         <v>2344.749822082216</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="C28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F28" t="n">
-        <v>460.8786259383999</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G28" t="n">
-        <v>291.7406856849093</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H28" t="n">
-        <v>132.7641230083225</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J28" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L28" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M28" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N28" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O28" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R28" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S28" t="n">
-        <v>607.7685734363102</v>
+        <v>2300.955812183542</v>
       </c>
       <c r="T28" t="n">
-        <v>607.7685734363102</v>
+        <v>2073.057390341627</v>
       </c>
       <c r="U28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="V28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="W28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="X28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="Y28" t="n">
-        <v>607.7685734363102</v>
+        <v>1783.87624508755</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>946.1584721983068</v>
+        <v>537.5805974356251</v>
       </c>
       <c r="C29" t="n">
-        <v>946.1584721983068</v>
+        <v>537.5805974356251</v>
       </c>
       <c r="D29" t="n">
-        <v>946.1584721983068</v>
+        <v>537.5805974356251</v>
       </c>
       <c r="E29" t="n">
-        <v>560.3702196000625</v>
+        <v>537.5805974356251</v>
       </c>
       <c r="F29" t="n">
-        <v>560.3702196000625</v>
+        <v>537.5805974356251</v>
       </c>
       <c r="G29" t="n">
-        <v>142.0984520829473</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H29" t="n">
-        <v>142.0984520829473</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6485,28 +6485,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S29" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220193</v>
       </c>
       <c r="T29" t="n">
-        <v>2270.376276991246</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U29" t="n">
-        <v>2016.589854876113</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V29" t="n">
-        <v>1685.526967532543</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W29" t="n">
-        <v>1332.758312262428</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="X29" t="n">
-        <v>1332.758312262428</v>
+        <v>1314.319769475559</v>
       </c>
       <c r="Y29" t="n">
-        <v>1332.758312262428</v>
+        <v>924.1804374997469</v>
       </c>
     </row>
     <row r="30">
@@ -6516,10 +6516,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>839.9448105435223</v>
+        <v>829.9842651606482</v>
       </c>
       <c r="C30" t="n">
-        <v>665.4917812623953</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D30" t="n">
         <v>665.4917812623953</v>
@@ -6540,25 +6540,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J30" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K30" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>645.6158192373777</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M30" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N30" t="n">
-        <v>1640.568559592726</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2102.280527752458</v>
       </c>
       <c r="P30" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q30" t="n">
         <v>2344.749822082216</v>
@@ -6579,13 +6579,13 @@
         <v>1460.197257673872</v>
       </c>
       <c r="W30" t="n">
-        <v>1215.920446328544</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X30" t="n">
-        <v>1215.920446328544</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y30" t="n">
-        <v>1008.16014756359</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="C31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="D31" t="n">
-        <v>1783.87624508755</v>
+        <v>416.6676742895843</v>
       </c>
       <c r="E31" t="n">
-        <v>1783.87624508755</v>
+        <v>362.9228841930452</v>
       </c>
       <c r="F31" t="n">
-        <v>1783.87624508755</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J31" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K31" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L31" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M31" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N31" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O31" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P31" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q31" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="R31" t="n">
-        <v>2344.749822082216</v>
+        <v>566.78431370192</v>
       </c>
       <c r="S31" t="n">
-        <v>2128.053995588337</v>
+        <v>566.78431370192</v>
       </c>
       <c r="T31" t="n">
-        <v>1900.155573746422</v>
+        <v>566.78431370192</v>
       </c>
       <c r="U31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="W31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="X31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
       <c r="Y31" t="n">
-        <v>1783.87624508755</v>
+        <v>566.78431370192</v>
       </c>
     </row>
     <row r="32">
@@ -6674,40 +6674,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>423.3012638219133</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="C32" t="n">
-        <v>423.3012638219133</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="D32" t="n">
-        <v>423.3012638219133</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="E32" t="n">
-        <v>423.3012638219133</v>
+        <v>1371.839859437666</v>
       </c>
       <c r="F32" t="n">
-        <v>46.89499644164432</v>
+        <v>960.8539546480588</v>
       </c>
       <c r="G32" t="n">
-        <v>46.89499644164432</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="H32" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K32" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275675</v>
       </c>
       <c r="L32" t="n">
-        <v>762.5916738244551</v>
+        <v>762.5916738244549</v>
       </c>
       <c r="M32" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N32" t="n">
         <v>1610.799342072557</v>
@@ -6728,22 +6728,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U32" t="n">
-        <v>1867.1984047608</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="V32" t="n">
-        <v>1536.135517417229</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="W32" t="n">
-        <v>1183.366862147115</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="X32" t="n">
-        <v>809.9011038860351</v>
+        <v>1756.118276785651</v>
       </c>
       <c r="Y32" t="n">
-        <v>809.9011038860351</v>
+        <v>1756.118276785651</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>882.1192016864297</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C33" t="n">
-        <v>707.6661724053027</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D33" t="n">
-        <v>558.7317627440515</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E33" t="n">
-        <v>399.494307738596</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F33" t="n">
-        <v>252.959749765481</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G33" t="n">
-        <v>114.884863898173</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H33" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I33" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K33" t="n">
-        <v>273.1268607498447</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L33" t="n">
-        <v>642.6780758583286</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M33" t="n">
-        <v>1125.906134925503</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N33" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O33" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P33" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R33" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T33" t="n">
-        <v>2183.516266982771</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U33" t="n">
-        <v>1955.335802636929</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V33" t="n">
-        <v>1720.183694405186</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W33" t="n">
-        <v>1465.946337676985</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X33" t="n">
-        <v>1258.094837471452</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y33" t="n">
-        <v>1050.334538706498</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="G34" t="n">
-        <v>46.89499644164432</v>
+        <v>2122.117097517586</v>
       </c>
       <c r="H34" t="n">
-        <v>46.89499644164432</v>
+        <v>1979.7824241432</v>
       </c>
       <c r="I34" t="n">
-        <v>46.89499644164432</v>
+        <v>1839.299266942299</v>
       </c>
       <c r="J34" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K34" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L34" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M34" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N34" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O34" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P34" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q34" t="n">
-        <v>607.7685734363102</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="R34" t="n">
-        <v>453.4106385108907</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="S34" t="n">
-        <v>274.7934182835589</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="T34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="U34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="V34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="W34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="X34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.89499644164432</v>
+        <v>2303.765562347826</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>774.1232119888066</v>
+        <v>463.2070523446538</v>
       </c>
       <c r="C35" t="n">
-        <v>405.1606950483948</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="D35" t="n">
-        <v>46.89499644164432</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="G35" t="n">
-        <v>46.89499644164432</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="H35" t="n">
-        <v>46.89499644164432</v>
+        <v>94.24453540424213</v>
       </c>
       <c r="I35" t="n">
         <v>46.89499644164432</v>
@@ -6959,28 +6959,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2161.554709220192</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T35" t="n">
-        <v>2161.554709220192</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U35" t="n">
-        <v>1907.76828710506</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="V35" t="n">
-        <v>1907.76828710506</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="W35" t="n">
-        <v>1907.76828710506</v>
+        <v>1613.411982645667</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.86238402874</v>
+        <v>1239.946224384587</v>
       </c>
       <c r="Y35" t="n">
-        <v>1160.723052052928</v>
+        <v>849.8068924087756</v>
       </c>
     </row>
     <row r="36">
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>843.8100588399052</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C36" t="n">
-        <v>669.3570295587782</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D36" t="n">
-        <v>520.4226198975269</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E36" t="n">
-        <v>361.1851648920714</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="F36" t="n">
-        <v>214.6506069189564</v>
+        <v>152.2107680396221</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H36" t="n">
         <v>46.89499644164432</v>
@@ -7014,7 +7014,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
         <v>121.6684232076319</v>
@@ -7038,28 +7038,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U36" t="n">
-        <v>1917.026659790404</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V36" t="n">
-        <v>1681.874551558662</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W36" t="n">
-        <v>1427.63719483046</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X36" t="n">
-        <v>1219.785694624927</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y36" t="n">
-        <v>1012.025395859973</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
       <c r="C37" t="n">
         <v>46.89499644164432</v>
@@ -7114,31 +7114,31 @@
         <v>607.7685734363102</v>
       </c>
       <c r="Q37" t="n">
-        <v>566.78431370192</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R37" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>412.4263787765005</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T37" t="n">
-        <v>412.4263787765005</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="U37" t="n">
-        <v>123.2452335224236</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="V37" t="n">
-        <v>123.2452335224236</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="W37" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="X37" t="n">
-        <v>46.89499644164432</v>
+        <v>379.8701515943957</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.89499644164432</v>
+        <v>159.0775724508656</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.857513382056</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="C38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H38" t="n">
         <v>46.89499644164432</v>
@@ -7196,28 +7196,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082217</v>
+        <v>2311.527499110479</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082217</v>
+        <v>2128.332386248455</v>
       </c>
       <c r="T38" t="n">
-        <v>2172.617521068316</v>
+        <v>1908.349626880034</v>
       </c>
       <c r="U38" t="n">
-        <v>1918.831098953184</v>
+        <v>1908.349626880034</v>
       </c>
       <c r="V38" t="n">
-        <v>1918.831098953184</v>
+        <v>1908.349626880034</v>
       </c>
       <c r="W38" t="n">
-        <v>1566.062443683069</v>
+        <v>1555.58097160992</v>
       </c>
       <c r="X38" t="n">
-        <v>1192.59668542199</v>
+        <v>1182.11521334884</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.4573534461779</v>
+        <v>1182.11521334884</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7227,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.8792202047736</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C39" t="n">
-        <v>814.4261909236466</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D39" t="n">
-        <v>665.4917812623953</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E39" t="n">
-        <v>506.2543262569397</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F39" t="n">
-        <v>359.7197682838247</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G39" t="n">
         <v>221.6448824165167</v>
@@ -7254,49 +7254,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K39" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L39" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N39" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2284.797188333378</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2123.563633233934</v>
       </c>
       <c r="T39" t="n">
-        <v>2123.072528197426</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="U39" t="n">
-        <v>1894.892063851584</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="V39" t="n">
-        <v>1659.739955619841</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W39" t="n">
-        <v>1405.50259889164</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y39" t="n">
-        <v>1157.094557224842</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>164.2294932568138</v>
+        <v>1873.684187215016</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="H40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="I40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="J40" t="n">
-        <v>46.89499644164432</v>
+        <v>1783.87624508755</v>
       </c>
       <c r="K40" t="n">
-        <v>87.46721626702977</v>
+        <v>1824.448464912935</v>
       </c>
       <c r="L40" t="n">
-        <v>194.9121237200978</v>
+        <v>1931.893372366003</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5868368362075</v>
+        <v>2055.568085482113</v>
       </c>
       <c r="N40" t="n">
-        <v>444.7554581228448</v>
+        <v>2181.736706768751</v>
       </c>
       <c r="O40" t="n">
-        <v>545.2763053496715</v>
+        <v>2282.257553995577</v>
       </c>
       <c r="P40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q40" t="n">
-        <v>607.7685734363102</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="R40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T40" t="n">
-        <v>453.4106385108907</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U40" t="n">
-        <v>164.2294932568138</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V40" t="n">
-        <v>164.2294932568138</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W40" t="n">
-        <v>164.2294932568138</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="X40" t="n">
-        <v>164.2294932568138</v>
+        <v>2055.332652045256</v>
       </c>
       <c r="Y40" t="n">
-        <v>164.2294932568138</v>
+        <v>2055.332652045256</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1939.313389647675</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.350872707263</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="D41" t="n">
-        <v>1570.350872707263</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>751.2088297498206</v>
       </c>
       <c r="G41" t="n">
         <v>542.5821871309436</v>
@@ -7445,16 +7445,16 @@
         <v>2270.376276991246</v>
       </c>
       <c r="V41" t="n">
-        <v>1939.313389647675</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W41" t="n">
-        <v>1939.313389647675</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="X41" t="n">
-        <v>1939.313389647675</v>
+        <v>1896.910518730166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1939.313389647675</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="42">
@@ -7506,34 +7506,34 @@
         <v>2102.280527752458</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U42" t="n">
-        <v>1923.529830251457</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>1058.643340966061</v>
       </c>
     </row>
     <row r="43">
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="C43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="D43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="E43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="F43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="G43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="H43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="I43" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
@@ -7600,19 +7600,19 @@
         <v>195.7305522826212</v>
       </c>
       <c r="U43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="V43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="W43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="X43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.89499644164432</v>
+        <v>195.7305522826212</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7622,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1896.910518730166</v>
+        <v>1120.171346690232</v>
       </c>
       <c r="C44" t="n">
-        <v>1527.948001789754</v>
+        <v>790.948947646639</v>
       </c>
       <c r="D44" t="n">
-        <v>1527.948001789754</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E44" t="n">
-        <v>1142.15974919151</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F44" t="n">
-        <v>960.8539546480588</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.045321891553</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7691,7 +7691,7 @@
         <v>1896.910518730166</v>
       </c>
       <c r="Y44" t="n">
-        <v>1896.910518730166</v>
+        <v>1506.771186754354</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076319</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N45" t="n">
-        <v>1640.568559592726</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O45" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P45" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="46">
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="C46" t="n">
         <v>46.89499644164432</v>
@@ -7831,25 +7831,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T46" t="n">
-        <v>607.7685734363102</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="U46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="V46" t="n">
-        <v>318.5874281822333</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="W46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="X46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.89499644164432</v>
+        <v>215.8311793695513</v>
       </c>
     </row>
   </sheetData>
@@ -8061,10 +8061,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,19 +8301,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>312.04082470182</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>254.8897585970532</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q12" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O15" t="n">
-        <v>177.3009884841359</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L18" t="n">
-        <v>214.8846069991543</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,16 +9489,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>476.3749567889589</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9726,16 +9726,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>415.7693643006697</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9954,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K27" t="n">
-        <v>261.4978194579836</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>315.4953510853424</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.0889669861391</v>
+        <v>57.08896698613911</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>390.8949017221345</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>101.9014378473433</v>
       </c>
       <c r="Q30" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>261.4978194579836</v>
+        <v>47.90390621998491</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K36" t="n">
-        <v>47.90390621998488</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10902,7 +10902,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11154,10 +11154,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>101.9014378473433</v>
+        <v>254.8897585970532</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720732</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11315,7 +11315,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>47.90390621998488</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11391,10 +11391,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>57.0889669861391</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,13 +22544,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22565,10 +22565,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22592,16 +22592,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>138.0053911458572</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22626,7 +22626,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>90.01494526515906</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22671,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22680,19 +22680,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>29.50926500492309</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22784,19 +22784,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,7 +22829,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>323.8216709537613</v>
       </c>
     </row>
     <row r="6">
@@ -22860,10 +22860,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22872,10 +22872,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>52.3214796056713</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,22 +22908,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>104.008026804208</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,10 +22960,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23024,19 +23024,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23072,19 +23072,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>97.54843351316518</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>144.2240617393275</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23148,16 +23148,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23261,16 +23261,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>264.0408202523498</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>395.3264151649419</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
         <v>327.0451232326991</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>105.6924183331601</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>108.9366819640819</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,16 +23458,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>57.69048637708113</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
@@ -23543,10 +23543,10 @@
         <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>172.5786421829819</v>
       </c>
       <c r="T14" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.2485578939812</v>
@@ -23558,7 +23558,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>324.5268110867133</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23583,16 +23583,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>14.27705323942853</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23625,10 +23625,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>165.5317197306519</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.9044066543622</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.090051078196964</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>214.5288682289405</v>
@@ -23741,10 +23741,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>351.2988607194783</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,13 +23777,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23792,13 +23792,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>30.96077946991579</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23817,7 +23817,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -23829,7 +23829,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>70.14174293906261</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>205.4339102417605</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.6190055227496</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23905,7 +23905,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>7.573373630534348</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288915</v>
@@ -23938,10 +23938,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
@@ -23950,7 +23950,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,28 +23966,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>163.705637821673</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>368.5072492097884</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S20" t="n">
         <v>181.3631617334038</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,22 +24051,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H21" t="n">
-        <v>70.56471273913846</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>53.38246657340278</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>47.12045122871157</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
@@ -24181,13 +24181,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>58.12190805045418</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24206,22 +24206,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>185.6552671061301</v>
       </c>
       <c r="I23" t="n">
         <v>163.6851955497072</v>
@@ -24254,25 +24254,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.25788847761191</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,7 +24285,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>97.46670409619261</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -24303,7 +24303,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749141</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>76.57988169550505</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24348,7 +24348,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>43.89210145070378</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H25" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620181</v>
@@ -24406,28 +24406,28 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R25" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S25" t="n">
-        <v>214.5288682289405</v>
+        <v>137.1113257170865</v>
       </c>
       <c r="T25" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,13 +24443,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>257.0984016657641</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24458,7 @@
         <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24488,19 +24488,19 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>27.79241167938339</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24522,25 +24522,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>148.5953370768084</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>68.73977323312572</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>54.06789032788012</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704631</v>
       </c>
       <c r="R28" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S28" t="n">
-        <v>214.5288682289405</v>
+        <v>171.1727984292527</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24686,19 +24686,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>255.3554280906021</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>69.43377446481725</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24725,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24759,10 +24759,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>157.3060054936841</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24819,7 +24819,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>9.860939929045315</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>93.22662045099548</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>157.3867970498209</v>
       </c>
       <c r="I31" t="n">
-        <v>139.0783256288915</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J31" t="n">
         <v>54.86879163620181</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>171.1727984292525</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>1.49473689775715</v>
       </c>
       <c r="F32" t="n">
-        <v>34.23384103524512</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24968,7 +24968,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
         <v>251.2485578939812</v>
@@ -24977,10 +24977,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -25011,10 +25011,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>38.65383027744605</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.03858805571424</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>137.1803309947773</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25090,13 +25090,13 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H34" t="n">
-        <v>157.3867970498209</v>
+        <v>16.47547040917868</v>
       </c>
       <c r="I34" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,16 +25117,16 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>40.5744171370463</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S34" t="n">
-        <v>37.69782020388197</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
         <v>286.2893338015361</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25172,7 +25172,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
-        <v>163.6851955497072</v>
+        <v>116.8091519767354</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>16.39425663291263</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25239,16 +25239,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>76.57988169550532</v>
+        <v>32.43152312663689</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571424</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>56.1860708494988</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25354,31 +25354,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
         <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>210.9362636266195</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25391,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,10 +25403,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>163.6851955497072</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006111</v>
+        <v>40.73970989804108</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>47.37195377097567</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25482,7 +25482,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25515,16 +25515,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>0.4861939861419984</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25533,7 +25533,7 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>165.5317197306518</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>51.08566925161001</v>
+        <v>78.33695839243646</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,7 +25594,7 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25603,13 +25603,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,13 +25634,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>185.404466935361</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>207.5486736492558</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25685,16 +25685,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25704,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>97.46670409619252</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,16 +25761,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>137.1803309947773</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25804,10 +25804,10 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>139.0783256288915</v>
+        <v>46.59991698252625</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>138.942133518969</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,28 +25862,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>39.34271671785029</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>227.383309143695</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25953,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,13 +25989,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>143.6184697512195</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26071,19 +26071,19 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S46" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.6194376234954</v>
+        <v>52.13028572634454</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>17.5474909134079</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>696132.8158809262</v>
+        <v>696132.815880926</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>696132.815880926</v>
+        <v>696132.8158809262</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>696132.8158809259</v>
+        <v>696132.8158809257</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>696132.8158809261</v>
+        <v>696132.815880926</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>696132.815880926</v>
+        <v>696132.8158809261</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>696132.8158809261</v>
+        <v>696132.8158809262</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>696132.815880926</v>
+        <v>696132.8158809261</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>696132.8158809261</v>
+        <v>696132.8158809262</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>696132.8158809259</v>
+        <v>696132.815880926</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>149544.6052781991</v>
+      </c>
+      <c r="C2" t="n">
         <v>149544.6052781992</v>
-      </c>
-      <c r="C2" t="n">
-        <v>149544.6052781991</v>
       </c>
       <c r="D2" t="n">
         <v>149544.6052781992</v>
       </c>
       <c r="E2" t="n">
-        <v>237938.4897877938</v>
+        <v>237938.4897877937</v>
       </c>
       <c r="F2" t="n">
         <v>237938.4897877938</v>
@@ -26332,16 +26332,16 @@
         <v>237938.4897877937</v>
       </c>
       <c r="I2" t="n">
+        <v>237938.4897877938</v>
+      </c>
+      <c r="J2" t="n">
+        <v>237938.4897877938</v>
+      </c>
+      <c r="K2" t="n">
         <v>237938.4897877937</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>237938.4897877937</v>
-      </c>
-      <c r="K2" t="n">
-        <v>237938.4897877938</v>
-      </c>
-      <c r="L2" t="n">
-        <v>237938.4897877938</v>
       </c>
       <c r="M2" t="n">
         <v>237938.4897877937</v>
@@ -26350,10 +26350,10 @@
         <v>237938.4897877937</v>
       </c>
       <c r="O2" t="n">
-        <v>237938.4897877937</v>
+        <v>237938.4897877938</v>
       </c>
       <c r="P2" t="n">
-        <v>237938.4897877937</v>
+        <v>237938.4897877938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="C4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="D4" t="n">
-        <v>6716.703256796494</v>
+        <v>8547.111069342402</v>
       </c>
       <c r="E4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="F4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="G4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="H4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="I4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="L4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="M4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="N4" t="n">
-        <v>7284.960146632113</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>7284.960146632111</v>
+        <v>9200.106879687153</v>
       </c>
       <c r="P4" t="n">
-        <v>7284.960146632111</v>
+        <v>9200.106879687153</v>
       </c>
     </row>
     <row r="5">
@@ -26485,10 +26485,10 @@
         <v>42221.72212544655</v>
       </c>
       <c r="H5" t="n">
-        <v>42221.72212544657</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="I5" t="n">
-        <v>42221.72212544657</v>
+        <v>42221.72212544655</v>
       </c>
       <c r="J5" t="n">
         <v>42221.72212544655</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13777.20172609327</v>
+        <v>11946.79391354732</v>
       </c>
       <c r="C6" t="n">
-        <v>94546.63325764096</v>
+        <v>92716.22544509509</v>
       </c>
       <c r="D6" t="n">
-        <v>94546.63325764099</v>
+        <v>92716.22544509511</v>
       </c>
       <c r="E6" t="n">
-        <v>-157180.5352632376</v>
+        <v>-159095.6819962927</v>
       </c>
       <c r="F6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="G6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.66078266</v>
       </c>
       <c r="H6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="I6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="J6" t="n">
-        <v>125371.8649166088</v>
+        <v>123456.7181835538</v>
       </c>
       <c r="K6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.66078266</v>
       </c>
       <c r="L6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="M6" t="n">
-        <v>102413.273695639</v>
+        <v>100498.126962584</v>
       </c>
       <c r="N6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="O6" t="n">
-        <v>188431.807515715</v>
+        <v>186516.6607826601</v>
       </c>
       <c r="P6" t="n">
-        <v>188431.8075157151</v>
+        <v>186516.6607826601</v>
       </c>
     </row>
   </sheetData>
@@ -26753,19 +26753,19 @@
         <v>301.9048087062787</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="I3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="J3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="K3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="L3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="M3" t="n">
         <v>301.9048087062787</v>
@@ -26805,10 +26805,10 @@
         <v>586.1874555205541</v>
       </c>
       <c r="H4" t="n">
-        <v>586.1874555205542</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="I4" t="n">
-        <v>586.1874555205542</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="J4" t="n">
         <v>586.1874555205541</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32488,22 +32488,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U20" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32558,25 +32558,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H22" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L22" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N22" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T22" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32704,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I23" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J23" t="n">
         <v>103.0102241525006</v>
@@ -32725,22 +32725,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P23" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q23" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R23" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S23" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T23" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H24" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I24" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J24" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K24" t="n">
         <v>104.8606541711232</v>
@@ -32795,25 +32795,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M24" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N24" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O24" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P24" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q24" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R24" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S24" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T24" t="n">
         <v>2.617457728311981</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H25" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I25" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J25" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K25" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L25" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M25" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N25" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O25" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P25" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q25" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R25" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S25" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T25" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I26" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J26" t="n">
         <v>103.0102241525006</v>
@@ -32962,22 +32962,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P26" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q26" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R26" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S26" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T26" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H27" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I27" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J27" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K27" t="n">
         <v>104.8606541711232</v>
@@ -33032,25 +33032,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M27" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N27" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O27" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P27" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q27" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R27" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S27" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T27" t="n">
         <v>2.617457728311981</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H28" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I28" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J28" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K28" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L28" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M28" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N28" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O28" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P28" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q28" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R28" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S28" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T28" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33178,7 +33178,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I29" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J29" t="n">
         <v>103.0102241525006</v>
@@ -33199,22 +33199,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P29" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q29" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R29" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S29" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T29" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H30" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I30" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J30" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K30" t="n">
         <v>104.8606541711232</v>
@@ -33269,25 +33269,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M30" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N30" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O30" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P30" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q30" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R30" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S30" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T30" t="n">
         <v>2.617457728311981</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H31" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I31" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J31" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K31" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L31" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M31" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N31" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O31" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P31" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q31" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R31" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S31" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T31" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33415,7 +33415,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I32" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069873</v>
       </c>
       <c r="J32" t="n">
         <v>103.0102241525006</v>
@@ -33436,22 +33436,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P32" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q32" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R32" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108856</v>
       </c>
       <c r="S32" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T32" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393907</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.0970950138552855</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.6493801545757691</v>
       </c>
       <c r="H33" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087034</v>
       </c>
       <c r="I33" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J33" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454669</v>
       </c>
       <c r="K33" t="n">
         <v>104.8606541711232</v>
@@ -33506,25 +33506,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M33" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N33" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O33" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P33" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q33" t="n">
-        <v>82.89280709988242</v>
+        <v>82.8928070998824</v>
       </c>
       <c r="R33" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S33" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T33" t="n">
         <v>2.617457728311981</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031254</v>
       </c>
       <c r="H34" t="n">
-        <v>4.840375457618701</v>
+        <v>4.8403754576187</v>
       </c>
       <c r="I34" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J34" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047096</v>
       </c>
       <c r="K34" t="n">
-        <v>63.25153205354492</v>
+        <v>63.25153205354491</v>
       </c>
       <c r="L34" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823739</v>
       </c>
       <c r="M34" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069444</v>
       </c>
       <c r="N34" t="n">
-        <v>83.31087942545561</v>
+        <v>83.3108794254556</v>
       </c>
       <c r="O34" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598724</v>
       </c>
       <c r="P34" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292342</v>
       </c>
       <c r="Q34" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464807</v>
       </c>
       <c r="R34" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S34" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031736</v>
       </c>
       <c r="T34" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471596</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34781,10 +34781,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34796,7 +34796,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,13 +35255,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>169.9067907798017</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35504,10 +35504,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
-        <v>244.9184791209679</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O15" t="n">
-        <v>189.2088021329886</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K18" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L18" t="n">
-        <v>217.3283173608304</v>
+        <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
         <v>488.1091505729034</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36133,13 +36133,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K21" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36209,16 +36209,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>513.926199908207</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P21" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,13 +36279,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36294,7 +36294,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,13 +36355,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K23" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L23" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M23" t="n">
         <v>432.2802359107712</v>
@@ -36370,13 +36370,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O23" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P23" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q23" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651353</v>
@@ -36446,13 +36446,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>453.3206074199177</v>
       </c>
       <c r="O24" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L25" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M25" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N25" t="n">
         <v>127.4430518046842</v>
@@ -36531,7 +36531,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P25" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K26" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L26" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M26" t="n">
         <v>432.2802359107712</v>
@@ -36607,13 +36607,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O26" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P26" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q26" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>228.5170346547479</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651353</v>
@@ -36686,10 +36686,10 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092571</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,13 +36753,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L28" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M28" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N28" t="n">
         <v>127.4430518046842</v>
@@ -36768,7 +36768,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P28" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K29" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L29" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M29" t="n">
         <v>432.2802359107712</v>
@@ -36844,13 +36844,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O29" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P29" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q29" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K30" t="n">
-        <v>231.4844522093429</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651353</v>
@@ -36923,13 +36923,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
-        <v>402.8027153709872</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>91.93015837125802</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,13 +36990,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L31" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M31" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N31" t="n">
         <v>127.4430518046842</v>
@@ -37005,7 +37005,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P31" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788807</v>
       </c>
       <c r="K32" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L32" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M32" t="n">
         <v>432.2802359107712</v>
@@ -37081,13 +37081,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O32" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874305</v>
       </c>
       <c r="P32" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q32" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K33" t="n">
-        <v>228.5170346547479</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L33" t="n">
         <v>373.2840556651353</v>
@@ -37160,13 +37160,13 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O33" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766206</v>
       </c>
       <c r="L34" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M34" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N34" t="n">
         <v>127.4430518046842</v>
@@ -37242,7 +37242,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P34" t="n">
-        <v>63.12350311781692</v>
+        <v>63.12350311781691</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>14.92312141674913</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L36" t="n">
         <v>373.2840556651353</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>231.4844522093429</v>
+        <v>75.52871390503797</v>
       </c>
       <c r="L39" t="n">
         <v>373.2840556651353</v>
@@ -37637,10 +37637,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P39" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37874,10 +37874,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P42" t="n">
-        <v>91.93015837125802</v>
+        <v>244.9184791209679</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788754</v>
       </c>
       <c r="K44" t="n">
         <v>258.4411848848628</v>
@@ -38035,7 +38035,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>14.92312141674913</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38111,10 +38111,10 @@
         <v>405.7701329255823</v>
       </c>
       <c r="P45" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
